--- a/Trade/Export/Exclude re-importall-updated.xlsx
+++ b/Trade/Export/Exclude re-importall-updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmich\OneDrive\Bureaublad\NLOT-data-analysis\Trade\Export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmich\GitHub\NLOT\Trade\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A5A89F-3DDB-48F0-8A35-03E5E4842577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2EE267-7018-4D72-9E15-D9051B6A9217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D6DCCAA3-344B-42AA-8F5B-EB167A22401A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="72">
   <si>
     <t>TOTAL</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>ASML Services</t>
+  </si>
+  <si>
+    <t>ASML services</t>
   </si>
 </sst>
 </file>
@@ -405,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -432,6 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -747,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875C72B9-EB42-411E-8A8E-3BAED5027B33}">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -761,7 +771,7 @@
     <col min="4" max="4" width="25.5546875" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1604,7 +1614,9 @@
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C28" s="16">
         <v>13.388</v>
       </c>
@@ -1616,13 +1628,13 @@
       <c r="G28" s="2">
         <v>0.84750000000000003</v>
       </c>
-      <c r="H28" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="H28" s="4">
+        <f>(H2-SUM(H3:H27))</f>
+        <v>440.58157797749936</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(I2-SUM(I3:I27))</f>
+        <v>440581577.97749996</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2435,7 +2447,9 @@
       <c r="A55" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C55" s="16">
         <v>6.3150000000000004</v>
       </c>
@@ -2447,13 +2461,13 @@
       <c r="G55" s="6">
         <v>0.8931</v>
       </c>
-      <c r="H55" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="H55" s="4">
+        <f>H29-SUM(H30:H54)</f>
+        <v>444.39847387259852</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>I29-SUM(I30:I54)</f>
+        <v>444398473.87259674</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3421,7 +3435,9 @@
       <c r="A87" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C87" s="16">
         <v>7.3769999999999998</v>
       </c>
@@ -3433,13 +3449,13 @@
       <c r="G87" s="2">
         <v>0.877</v>
       </c>
-      <c r="H87" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="H87" s="4">
+        <f>H56-SUM(H57:H86)</f>
+        <v>424.29225183100061</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>I56-SUM(I57:I86)</f>
+        <v>424292251.83100033</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4407,7 +4423,9 @@
       <c r="A119" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="3"/>
+      <c r="B119" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C119" s="16">
         <v>5.798</v>
       </c>
@@ -4419,13 +4437,13 @@
       <c r="G119" s="2">
         <v>0.8458</v>
       </c>
-      <c r="H119" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="H119" s="4">
+        <f>H88-SUM(H89:H118)</f>
+        <v>501.81209036219934</v>
       </c>
       <c r="I119" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>I88-SUM(I89:I118)</f>
+        <v>501812090.36220074</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5238,7 +5256,9 @@
       <c r="A146" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B146" s="3"/>
+      <c r="B146" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C146" s="16">
         <v>6.367</v>
       </c>
@@ -5261,7 +5281,25 @@
         <v>614422080</v>
       </c>
     </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>69</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E147" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F147" s="18">
+        <v>2020</v>
+      </c>
+      <c r="I147">
+        <v>795000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>